--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
   </si>
 </sst>
 </file>
@@ -468,9 +471,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -496,6 +496,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -824,11 +827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -845,29 +848,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -895,10 +898,12 @@
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8"/>
       <c r="E3" s="14">
         <v>105000</v>
       </c>
@@ -923,10 +928,12 @@
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8"/>
       <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
@@ -951,10 +958,12 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8"/>
       <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
@@ -980,10 +989,12 @@
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8"/>
       <c r="E6" s="14">
         <v>85000</v>
       </c>
@@ -1008,10 +1019,12 @@
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8"/>
       <c r="E7" s="14">
         <v>85000</v>
       </c>
@@ -1036,10 +1049,12 @@
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8"/>
       <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1061,10 +1076,12 @@
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1085,10 +1102,12 @@
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="8"/>
       <c r="E10" s="14">
         <v>75000</v>
       </c>
@@ -1109,10 +1128,12 @@
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
       <c r="E11" s="14">
         <v>75000</v>
       </c>
@@ -1133,10 +1154,12 @@
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="8"/>
       <c r="E12" s="11" t="s">
         <v>7</v>
       </c>
@@ -1157,10 +1180,12 @@
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8"/>
       <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1324,7 @@
       <c r="B6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1310,7 +1335,7 @@
       <c r="B7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085BA925-8A0D-494E-BE20-AD6E80140323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -210,12 +211,21 @@
   </si>
   <si>
     <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>73.500</t>
+  </si>
+  <si>
+    <t>27th Ibero-American Summit in Andorra</t>
+  </si>
+  <si>
+    <t>50 years since Andorra's introduction of women's suffrage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,6 +484,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,18 +509,31 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -547,16 +573,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -824,53 +850,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -891,14 +917,14 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -921,14 +947,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -947,18 +973,18 @@
         <v>7</v>
       </c>
       <c r="I4" s="10" t="str">
-        <f t="shared" ref="I4:I7" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I4:I13" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2015</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -982,14 +1008,14 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2016</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1012,14 +1038,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2016</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1042,14 +1068,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2017</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1067,16 +1093,19 @@
       <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2017</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1094,15 +1123,19 @@
       <c r="H9" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2018</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1120,15 +1153,19 @@
       <c r="H10" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2018</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1146,15 +1183,19 @@
       <c r="H11" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1172,15 +1213,19 @@
       <c r="H12" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1197,6 +1242,70 @@
       </c>
       <c r="H13" s="9" t="s">
         <v>7</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" ref="I14:I15" si="1">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-"),AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="14">
+        <v>60000</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1208,11 +1317,45 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G13">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H13">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1224,12 +1367,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H13">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H13">
+  <conditionalFormatting sqref="H14:H15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1248,21 +1391,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1284,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1295,7 +1438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1306,7 +1449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1317,7 +1460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1328,7 +1471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1341,12 +1484,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085BA925-8A0D-494E-BE20-AD6E80140323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27ED380-1494-4C1B-BE65-09EA0400E909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -100,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -220,12 +229,39 @@
   </si>
   <si>
     <t>50 years since Andorra's introduction of women's suffrage</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Coronation of Our Lady of Meritxell</t>
+  </si>
+  <si>
+    <t>Let’s Take Care of Our Elderly</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Entry into Force of the Monetary Agreement Between Andorra and the European Union</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>30th Anniversary - Andorra's Accession to the United Nations</t>
+  </si>
+  <si>
+    <t>Summer Soltice Festivals</t>
+  </si>
+  <si>
+    <t>73.750</t>
+  </si>
+  <si>
+    <t>70.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,7 +465,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -487,6 +523,7 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,7 +554,135 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -542,6 +707,70 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -580,9 +809,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -851,52 +1080,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -917,7 +1146,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2014</v>
       </c>
@@ -936,8 +1165,8 @@
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>7</v>
+      <c r="G3" s="9">
+        <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>7</v>
@@ -947,7 +1176,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2015</v>
       </c>
@@ -969,15 +1198,15 @@
       <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>7</v>
+      <c r="H4" s="9">
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="str">
         <f t="shared" ref="I4:I13" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2015</v>
       </c>
@@ -999,8 +1228,8 @@
       <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>7</v>
+      <c r="H5" s="9">
+        <v>0</v>
       </c>
       <c r="I5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1008,7 +1237,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2016</v>
       </c>
@@ -1027,8 +1256,8 @@
       <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
+      <c r="G6" s="9">
+        <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>7</v>
@@ -1038,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2016</v>
       </c>
@@ -1057,8 +1286,8 @@
       <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>7</v>
+      <c r="G7" s="9">
+        <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>7</v>
@@ -1068,7 +1297,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2017</v>
       </c>
@@ -1090,15 +1319,15 @@
       <c r="G8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>7</v>
+      <c r="H8" s="9">
+        <v>0</v>
       </c>
       <c r="I8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2017</v>
       </c>
@@ -1120,15 +1349,15 @@
       <c r="G9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>7</v>
+      <c r="H9" s="9">
+        <v>0</v>
       </c>
       <c r="I9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2018</v>
       </c>
@@ -1147,8 +1376,8 @@
       <c r="F10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>7</v>
+      <c r="G10" s="9">
+        <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>7</v>
@@ -1158,7 +1387,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2018</v>
       </c>
@@ -1177,8 +1406,8 @@
       <c r="F11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>7</v>
+      <c r="G11" s="9">
+        <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>7</v>
@@ -1188,7 +1417,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2019</v>
       </c>
@@ -1210,15 +1439,15 @@
       <c r="G12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>7</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -1240,15 +1469,15 @@
       <c r="G13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>7</v>
+      <c r="H13" s="9">
+        <v>0</v>
       </c>
       <c r="I13" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2020</v>
       </c>
@@ -1261,14 +1490,14 @@
       <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>7</v>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>7</v>
@@ -1278,7 +1507,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2020</v>
       </c>
@@ -1291,20 +1520,202 @@
       <c r="D15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="E15" s="14">
         <v>60000</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>7</v>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" ref="I16:I17" si="2">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-"),AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" ref="I18:I19" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-"),AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" ref="I20:I21" si="4">IF(OR(AND(G20&gt;1,G20&lt;&gt;"-"),AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1316,12 +1727,352 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G13">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:G5 G8:G9 G12:G13">
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G13">
+  <conditionalFormatting sqref="G3:G5 G8:G9 G12:G13">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H6:H7 H10:H11">
+    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7 H3 H10:H11">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G17">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19">
+    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G21">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1333,12 +2084,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H13">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H13">
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1350,12 +2101,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="H20">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1367,12 +2118,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+  <conditionalFormatting sqref="H21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1395,17 +2146,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +2167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1427,7 +2178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1438,7 +2189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1449,7 +2200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1460,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1471,7 +2222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>

--- a/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Andorra/#EURO#Andorra#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27ED380-1494-4C1B-BE65-09EA0400E909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78656584-0A1E-4A94-A7F3-1A2415172849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>70.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -554,151 +554,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -707,6 +563,118 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -809,9 +777,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1086,7 +1054,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20:H21"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1107,18 +1075,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="3"/>
@@ -1127,22 +1095,22 @@
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1151,25 +1119,25 @@
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="14">
         <v>105000</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="10" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1181,22 +1149,22 @@
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="14">
         <v>85000</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1211,22 +1179,22 @@
         <v>2015</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="14">
         <v>85000</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -1242,25 +1210,25 @@
         <v>2016</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="14">
         <v>85000</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1272,25 +1240,25 @@
         <v>2016</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="14">
         <v>85000</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1302,22 +1270,22 @@
         <v>2017</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="14">
         <v>85000</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -1332,22 +1300,22 @@
         <v>2017</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="14">
         <v>85000</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -1362,25 +1330,25 @@
         <v>2018</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="14">
         <v>75000</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1392,25 +1360,25 @@
         <v>2018</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="14">
         <v>75000</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1422,22 +1390,22 @@
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="14">
         <v>60000</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -1452,22 +1420,22 @@
         <v>2019</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="14">
         <v>60000</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -1482,25 +1450,25 @@
         <v>2020</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="10" t="str">
         <f t="shared" ref="I14:I15" si="1">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-"),AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
@@ -1512,25 +1480,25 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="14">
         <v>60000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1542,22 +1510,22 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -1574,22 +1542,22 @@
         <v>2021</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -1604,25 +1572,25 @@
         <v>2022</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="10" t="str">
         <f t="shared" ref="I18:I19" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-"),AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1634,25 +1602,25 @@
         <v>2022</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1664,22 +1632,22 @@
         <v>2023</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -1694,22 +1662,22 @@
         <v>2023</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
@@ -1728,7 +1696,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G5 G8:G9 G12:G13">
-    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1745,7 +1713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3 H6:H7 H10:H11">
-    <cfRule type="containsText" dxfId="29" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1762,7 +1730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1779,7 +1747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G17">
-    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1796,7 +1764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H19">
-    <cfRule type="containsText" dxfId="23" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1813,7 +1781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G21">
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1830,7 +1798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1847,7 +1815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1864,7 +1832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="15" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1881,7 +1849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1898,7 +1866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1915,7 +1883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1932,7 +1900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1949,7 +1917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1966,7 +1934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1983,7 +1951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2000,7 +1968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2017,7 +1985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2034,7 +2002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2051,7 +2019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2068,7 +2036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2085,7 +2053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2102,7 +2070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2119,7 +2087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2158,13 +2126,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2172,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2183,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2194,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2205,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2216,10 +2184,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2227,10 +2195,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
